--- a/non_contacts.xlsx
+++ b/non_contacts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/hackholyoke-mount-holyoke-481051</t>
+          <t>https://unstop.com/hackathon/queen-city-hacks-queen-city-hacks-490822</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/athena-hacks-showcode-480926</t>
+          <t>https://unstop.com/hackathon/rock-hacks-rock-hacks-490603</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/rock-hacks-hack-club-479990</t>
+          <t>https://unstop.com/hackathon/hackholyoke-mount-holyoke-481051</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/unihacks-unihacks-480103</t>
+          <t>https://unstop.com/hackathon/athena-hacks-showcode-480926</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/niural-hackathon-niural-479609</t>
+          <t>https://unstop.com/hackathon/unihacks-unihacks-480103</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://unstop.com/hackathon/hatch-taronga-accelerator-program-2023-taronga-479605</t>
+          <t>https://unstop.com/hackathon/rock-hacks-hack-club-479990</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,10 +520,1298 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>https://unstop.com/hackathon/niural-hackathon-niural-479609</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hatch-taronga-accelerator-program-2023-taronga-479605</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>https://unstop.com/hackathon/spacehack-2022-canberra-innovation-network-cbrin-457878</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackmca-middlesex-county-academy-edison-new-jersey-457875</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/xr-hacks-xr-hacks-447994</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/lion-city-hacks-lion-city-hacks-447998</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/quote-to-code-i-pandoras-box-indus-os-439223</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/uga-hacks-university-of-georgia-439175</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ycp-hacks-york-college-of-pennsylvania-438753</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hinterland-hack-2022-founders-foundation-433048</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/newhacks-2022-university-of-toronto-436543</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackprinceton-princeton-university-436507</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackphs-princeton-high-school-436529</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tamu-datathon-texas-am-university-433023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-tx-university-of-texas-at-austin-432936</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/unite-hacks-unitehacks-432922</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/plutohacks-broward-college-florida-usa-432942</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/google-code-jam-google-10587</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/kick-start-google-431734</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/lunarhacks-lunar-hacks-430025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mhacks-14-university-of-michigan-428530</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/the-pitt-challenge-university-of-pittsburgh-428533</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ibc-hack-1-ibc-media-im-bangalore-421685</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-austin-coder-one-417616</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/conuhacks-vii-concordia-university-montreal-quebec-420464</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/divhacks-2022-green-screen-columbia-university-new-york-420925</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/kent-hack-enough-kent-hack-enough-419286</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cal-hacks-university-of-california-berkeley-419275</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackumbc-university-of-maryland-418846</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-likeabosch-hybrid-hackathon-robert-bosch-gmbh-417623</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/junction-x-budapest-2022-craft-hub-417620</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacklytics-2023-georgia-institute-of-technology-409928</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-wash-u-anheuser-busch-409905</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sachacks-iv-university-of-california-davis-409896</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/medhacks-johns-hopkins-university-408337</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-harvard-harvard-university-cambridge-408357</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-the-valley-6-university-of-toronto-408368</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-orlando-hack-orlando-407674</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coder-one-coder-one-407677</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/technica-2022-technica-402793</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/leland-hacks-the-hack-foundation-402764</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/breederdao-hackathon-stack-league-397313</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackathon-challenge-2022-institute-of-engineering-and-technologyiet-london-397099</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/make-uc-university-of-cincinnati-384538</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/big-red-hacks-big-red-hacks-384407</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/get-set-hack-risecom-383391</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sego-lily-hacks-sego-lily-hacks-378612</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/pennapps-xxiii-pennapps-378597</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hophacks-johns-hopkins-university-378564</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/paradigm-conference-2022-paradigm-374361</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/assemble-hackclub-374329</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/world-youth-coders-hackathon-2022-world-coding-club-366313</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mix-n-match-elysia-2022-sjb-institute-of-technology-sjbit-bengaluru-357204</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/encode-austin-hackathon-encode-club-ltd-354000</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/schoolhacks-schoolhacks-350702</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hydra-hacks-hydra-hacks-350707</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/call-for-code-global-challenge-2022-call-for-code-348338</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/encode-x-polygon-hackathon-encode-club-ltd-333540</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/nft-berlin-encode-club-nft-berlin-333309</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/encode-x-blocksplit-hackathon-encode-club-ltd-331461</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code4good-viva-technology-327567</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sogeti-green-x-game-jam-sogeti-324308</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/high-tech-hacks-20-high-tech-hacks-323712</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/gryph-hacks-university-of-guelph-323739</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/montyhacks-v-montgomery-high-school-322847</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/plasma-hackathon-jawaharlal-nehru-national-college-of-engineering-jnnce-shimoga-karnataka-319483</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/high-tech-hacks-20-high-tech-high-school-secaucus-291005</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/masseyhacks-viii-vincent-massey-secondary-school-canada-290970</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ru-hacks-2022-ryerson-university-285723</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/code-character-bytehoc-pragyan-seshasayee-institute-of-technologysit-tiruchirappalli-268488</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/smart-home-sensors-and-analytics-hackathon-resideo-smart-home-technologies-india-private-limited-252321</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/lowes-india-hiring-codeathon-lowes-services-india-pvt-ltd-252329</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/ibm-z-student-contest-ibm-252320</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/source-code-kascade-bihar-jharkhand-kshitij-indian-institute-of-technology-iit-kharagpur-251724</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cuhackit-2022-college-of-engineering-computing-applied-sciences-clemson-university-251578</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/designathon-build-exun-2021-22-delhi-public-school-r-k-puram-251138</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/source-code-kascade-tamil-nadu-indian-institute-of-technology-iit-kharagpur-251549</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/cruzhacks-2022-university-of-california-santa-cruz-250355</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/kent-hack-enough-kent-hack-enough-246083</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/babylon-project-v2-world-blockchain-hackathon-164223</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/plutohacks-broward-college-florida-usa-224274</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/the-pitt-challenge-university-of-pittsburgh-222296</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/api-hacks-20-api-hacks-216736</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sunhacks-arizona-state-university-205999</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/shellhacks-florida-international-university-fiu-205200</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/metis-hackathon-metis-203811</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/medhacks-johns-hopkins-university-195355</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hackrice-11-rice-university-194514</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/datathon-shooting-stars-foundation-192807</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/tamu-datathon-texas-am-university-191959</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hacks-for-humanity-arizona-state-university-191580</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/sci2change-hackathon-sci2-foundation-190723</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/first-annual-california-artificial-intelligence-summit-girls-computing-league-189824</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/abilityhacks-ablifynow-189082</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/kuriushacks-kurius-188182</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/creatica-2021-creatica-187768</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/healthmetrics-x-imu-hackathon-2021-healthmetrics-186961</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/techacks-20-techacks-185407</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/coastalhacks-coastalhacks-185187</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/gui-development-hackathon-csir-central-mechanical-engineering-research-institute-183607</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/blockathon21-thadomal-shahani-engineering-college-tsec-mumbai-182811</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/orf-unleash-hacks-india-observer-research-foundation-180901</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/pridehacks-major-league-hacking-175276</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/researchathon-researchathon-175076</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/synaptic-hacks-2021-simply-neuroscience-173535</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/hack-the-gap-girlsexe-172858</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/creartathon-inria-170366</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://unstop.com/hackathon/mergexindia-hackpolicy-foundation-169176</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/non_contacts.xlsx
+++ b/non_contacts.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Contact_information</t>
+          <t>college_name</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Queen City Hacks </t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Rock Hacks </t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Mount Holyoke </t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Showcode </t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Unihacks </t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Hack Club </t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Niural </t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Taronga </t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Canberra Innovation Network (CBRIN) </t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Middlesex County Academy, Edison, New Jersey </t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> XR Hacks </t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Lion City Hacks </t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Indus OS </t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Georgia </t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> York College of Pennsylvania </t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Founders Foundation </t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Toronto </t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Princeton University </t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Princeton High School </t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Texas A&amp;M University </t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Texas at Austin </t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> UniteHacks </t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Broward College, Florida, USA </t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Google </t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Google </t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Lunar Hacks </t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Michigan </t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Pittsburgh </t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> IBC Media (IM), Bangalore </t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Coder One </t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Concordia University, Montreal, Quebec </t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Columbia University, New York </t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Kent Hack Enough </t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of California, Berkeley </t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Maryland </t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Robert Bosch GmbH </t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Craft Hub </t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Georgia Institute of Technology </t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Anheuser Busch </t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of California, Davis </t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> John's Hopkins University </t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Harvard University, Cambridge </t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Toronto </t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Hack Orlando </t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Coder One </t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Technica </t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> The Hack Foundation </t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Stack League </t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Institute of Engineering and Technology(IET), London </t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Cincinnati </t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Big Red Hacks </t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Rise.com </t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Sego Lily Hacks </t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> PennApps </t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> John's Hopkins University </t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Paradigm </t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Hackclub </t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> World Coding Club </t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> SJB Institute of Technology (SJBIT), Bengaluru </t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Encode Club Ltd. </t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> SchoolHacks </t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Hydra Hacks </t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Call for Code </t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Encode Club Ltd. </t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> NFT Berlin </t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Encode Club Ltd. </t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Viva Technology </t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Sogeti </t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> High Tech Hacks </t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Guelph </t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Montgomery High School </t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Jawaharlal Nehru National College of Engineering (JNNCE), Shimoga, Karnataka </t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> High Tech High School, Secaucus </t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Vincent Massey Secondary School, Canada </t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Ryerson University </t>
         </is>
       </c>
     </row>
@@ -1353,13 +1353,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> National Institute of Technology (NIT), Trichy </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unstop </t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1369,7 +1373,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Resideo Smart Home Technologies (India) Private Limited </t>
         </is>
       </c>
     </row>
@@ -1381,7 +1385,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Lowe's Services India Pvt. Ltd. </t>
         </is>
       </c>
     </row>
@@ -1393,7 +1397,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> IBM </t>
         </is>
       </c>
     </row>
@@ -1405,7 +1409,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Indian Institute of Technology (IIT), Kharagpur </t>
         </is>
       </c>
     </row>
@@ -1417,7 +1421,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> College of Engineering, Computing &amp; Applied Sciences, Clemson University </t>
         </is>
       </c>
     </row>
@@ -1429,7 +1433,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Delhi Public School R. K. Puram </t>
         </is>
       </c>
     </row>
@@ -1441,7 +1445,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Indian Institute of Technology (IIT), Kharagpur </t>
         </is>
       </c>
     </row>
@@ -1453,7 +1457,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of California, Santa Cruz </t>
         </is>
       </c>
     </row>
@@ -1465,7 +1469,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Kent Hack Enough </t>
         </is>
       </c>
     </row>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> World Blockchain Hackathon </t>
         </is>
       </c>
     </row>
@@ -1489,7 +1493,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Broward College, Florida, USA </t>
         </is>
       </c>
     </row>
@@ -1501,7 +1505,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> University of Pittsburgh </t>
         </is>
       </c>
     </row>
@@ -1513,7 +1517,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> API Hacks </t>
         </is>
       </c>
     </row>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Arizona State University </t>
         </is>
       </c>
     </row>
@@ -1537,7 +1541,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Florida International University (FIU) </t>
         </is>
       </c>
     </row>
@@ -1549,7 +1553,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Metis </t>
         </is>
       </c>
     </row>
@@ -1561,7 +1565,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> John's Hopkins University </t>
         </is>
       </c>
     </row>
@@ -1573,7 +1577,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Rice University </t>
         </is>
       </c>
     </row>
@@ -1585,7 +1589,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Shooting Stars Foundation </t>
         </is>
       </c>
     </row>
@@ -1597,7 +1601,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Texas A&amp;M University </t>
         </is>
       </c>
     </row>
@@ -1609,7 +1613,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Arizona State University </t>
         </is>
       </c>
     </row>
@@ -1621,7 +1625,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Sci2 Foundation </t>
         </is>
       </c>
     </row>
@@ -1633,7 +1637,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Girls Computing League </t>
         </is>
       </c>
     </row>
@@ -1645,7 +1649,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Ablifynow </t>
         </is>
       </c>
     </row>
@@ -1657,7 +1661,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Kurius </t>
         </is>
       </c>
     </row>
@@ -1669,7 +1673,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Creatica </t>
         </is>
       </c>
     </row>
@@ -1681,7 +1685,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> HealthMetrics </t>
         </is>
       </c>
     </row>
@@ -1693,7 +1697,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> TecHacks </t>
         </is>
       </c>
     </row>
@@ -1705,7 +1709,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> CoastalHacks </t>
         </is>
       </c>
     </row>
@@ -1717,7 +1721,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> CSIR-Central Mechanical Engineering Research Institute </t>
         </is>
       </c>
     </row>
@@ -1729,7 +1733,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Thadomal Shahani Engineering College (TSEC), Mumbai </t>
         </is>
       </c>
     </row>
@@ -1741,7 +1745,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Observer Research Foundation </t>
         </is>
       </c>
     </row>
@@ -1753,7 +1757,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Major League Hacking </t>
         </is>
       </c>
     </row>
@@ -1765,7 +1769,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Researchathon </t>
         </is>
       </c>
     </row>
@@ -1777,7 +1781,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Simply Neuroscience </t>
         </is>
       </c>
     </row>
@@ -1789,7 +1793,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> girls.exe </t>
         </is>
       </c>
     </row>
@@ -1801,7 +1805,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Inria </t>
         </is>
       </c>
     </row>
@@ -1813,7 +1817,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve"> Hack+Policy Foundation </t>
         </is>
       </c>
     </row>
